--- a/data/trans_orig/P36B14-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36B14-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>333189</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>304150</v>
+        <v>304248</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>365750</v>
+        <v>363010</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2966278537581443</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2707757104818385</v>
+        <v>0.2708621533392011</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3256158660861674</v>
+        <v>0.3231767627956081</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>415</v>
@@ -762,19 +762,19 @@
         <v>457359</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>422326</v>
+        <v>422558</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>490985</v>
+        <v>492982</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3647085653089321</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3367726440659141</v>
+        <v>0.3369577813492112</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3915227148898852</v>
+        <v>0.3931154139757614</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>735</v>
@@ -783,19 +783,19 @@
         <v>790548</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>742670</v>
+        <v>743261</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>838059</v>
+        <v>834276</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3325408906603655</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3124012758567873</v>
+        <v>0.3126497601895193</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3525264483240841</v>
+        <v>0.3509349678783902</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>167688</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>143354</v>
+        <v>145577</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>192272</v>
+        <v>194500</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1492878395319746</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1276232932375967</v>
+        <v>0.1296024571739031</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1711736369830829</v>
+        <v>0.1731572821223036</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>184</v>
@@ -833,19 +833,19 @@
         <v>191876</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>165098</v>
+        <v>167991</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>217487</v>
+        <v>221521</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1530063596007658</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1316530584300548</v>
+        <v>0.1339599186315265</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1734288920609861</v>
+        <v>0.1766461784065629</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>341</v>
@@ -854,19 +854,19 @@
         <v>359564</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>323426</v>
+        <v>326745</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>394943</v>
+        <v>396594</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1512493840782963</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1360480854357812</v>
+        <v>0.137444020534776</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1661310662626556</v>
+        <v>0.1668257722095602</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>202941</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>177674</v>
+        <v>178191</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>230261</v>
+        <v>229750</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1806718931087378</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1581778068008315</v>
+        <v>0.1586377798684339</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.204994224875795</v>
+        <v>0.2045395308665079</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>183</v>
@@ -904,19 +904,19 @@
         <v>196299</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>167763</v>
+        <v>171163</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>223139</v>
+        <v>222771</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1565330868507534</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1337782355810576</v>
+        <v>0.1364891470022845</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1779361991351324</v>
+        <v>0.1776429165743689</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>375</v>
@@ -925,19 +925,19 @@
         <v>399239</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>362640</v>
+        <v>361978</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>437572</v>
+        <v>436777</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1679385091564879</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1525431988023228</v>
+        <v>0.1522645334967046</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1840631623673712</v>
+        <v>0.1837287547610762</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>207385</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>180247</v>
+        <v>182212</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>234290</v>
+        <v>235226</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1846283893168938</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1604683520259242</v>
+        <v>0.1622173929203629</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2085814735286462</v>
+        <v>0.2094147494734813</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>183</v>
@@ -975,19 +975,19 @@
         <v>186444</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>162800</v>
+        <v>160729</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>214583</v>
+        <v>213167</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1486746740903445</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1298202199903672</v>
+        <v>0.1281692725124719</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1711131277911313</v>
+        <v>0.1699842279881572</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>379</v>
@@ -996,19 +996,19 @@
         <v>393829</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>361196</v>
+        <v>358245</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>431083</v>
+        <v>430267</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1656625607835098</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1519358320038044</v>
+        <v>0.1506942345115707</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1813334198212044</v>
+        <v>0.1809903419524343</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>212053</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>185626</v>
+        <v>188063</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>240156</v>
+        <v>239832</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1887840242842495</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1652569508408386</v>
+        <v>0.1674264413011198</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2138037192009822</v>
+        <v>0.2135148032180259</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>218</v>
@@ -1046,19 +1046,19 @@
         <v>222062</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>195483</v>
+        <v>195813</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>252369</v>
+        <v>250611</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1770773141492041</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1558829185841617</v>
+        <v>0.1561457049102239</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2012449757683943</v>
+        <v>0.1998428113714384</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>415</v>
@@ -1067,19 +1067,19 @@
         <v>434115</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>397818</v>
+        <v>401440</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>477605</v>
+        <v>473402</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1826086553213406</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1673404332107604</v>
+        <v>0.1688642863177569</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2009026032434316</v>
+        <v>0.1991348480711442</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>268116</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>244053</v>
+        <v>239796</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>298341</v>
+        <v>297625</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2962306691874593</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.269643620047071</v>
+        <v>0.264940390796298</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3296245394240839</v>
+        <v>0.3288341203188758</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>339</v>
@@ -1192,19 +1192,19 @@
         <v>375442</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>344482</v>
+        <v>346068</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>406236</v>
+        <v>412281</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3746679935679496</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3437712190233997</v>
+        <v>0.3453537106135418</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4053982772257986</v>
+        <v>0.4114304620615298</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>602</v>
@@ -1213,19 +1213,19 @@
         <v>643559</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>603967</v>
+        <v>599798</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>687144</v>
+        <v>682960</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3374435098386331</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.316684199971119</v>
+        <v>0.3144979254368108</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.360296954937567</v>
+        <v>0.3581029221192114</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>149012</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>127759</v>
+        <v>127489</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>169910</v>
+        <v>174788</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1646372552891846</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1411561031802517</v>
+        <v>0.1408574516953447</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1877262116105671</v>
+        <v>0.1931158678486473</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>155</v>
@@ -1263,19 +1263,19 @@
         <v>162800</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>142343</v>
+        <v>140060</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>189629</v>
+        <v>189314</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1624644879580346</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.142049536855294</v>
+        <v>0.1397711742593573</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1892380059922144</v>
+        <v>0.1889233126895723</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>297</v>
@@ -1284,19 +1284,19 @@
         <v>311812</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>278089</v>
+        <v>281156</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>345260</v>
+        <v>344224</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1634956315214438</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1458133875898413</v>
+        <v>0.1474213696290456</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1810333318652662</v>
+        <v>0.1804902314839846</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>177002</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>153143</v>
+        <v>154254</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>201108</v>
+        <v>203254</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1955624824672557</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1692010056605597</v>
+        <v>0.1704285813329713</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2221963496499957</v>
+        <v>0.2245666704816308</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>166</v>
@@ -1334,19 +1334,19 @@
         <v>169322</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>147635</v>
+        <v>145008</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>192305</v>
+        <v>194245</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1689732059057188</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1473300922861915</v>
+        <v>0.1447087512221658</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1919087219709668</v>
+        <v>0.1938438491685377</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>337</v>
@@ -1355,19 +1355,19 @@
         <v>346325</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>315437</v>
+        <v>313728</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>382474</v>
+        <v>383974</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1815918425121635</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1653962333187405</v>
+        <v>0.1644999953418956</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2005462919625628</v>
+        <v>0.2013328524472993</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>182380</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>160398</v>
+        <v>157631</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>210487</v>
+        <v>207171</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2015038039113404</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1772169017620241</v>
+        <v>0.1741602953542114</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2325586452844544</v>
+        <v>0.2288943405936734</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>168</v>
@@ -1405,19 +1405,19 @@
         <v>171677</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>151112</v>
+        <v>148537</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>196377</v>
+        <v>196467</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.171322726231551</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1508005626070145</v>
+        <v>0.148230221936552</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.195971782351839</v>
+        <v>0.1960616139133228</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>346</v>
@@ -1426,19 +1426,19 @@
         <v>354057</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>322531</v>
+        <v>320214</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>389045</v>
+        <v>389498</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1856459459983894</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1691158687465948</v>
+        <v>0.1679008842387201</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2039918456680167</v>
+        <v>0.204229182030874</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>128583</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>108209</v>
+        <v>108337</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>149187</v>
+        <v>149720</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1420657891447599</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1195552721736888</v>
+        <v>0.1196970660217665</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1648307655312649</v>
+        <v>0.1654199876510076</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>120</v>
@@ -1476,19 +1476,19 @@
         <v>122825</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>104111</v>
+        <v>101862</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>144285</v>
+        <v>143293</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.122571586336746</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1038958096056919</v>
+        <v>0.1016523480336124</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1439872662810521</v>
+        <v>0.1429974000062607</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>243</v>
@@ -1497,19 +1497,19 @@
         <v>251408</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>224037</v>
+        <v>221635</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>283779</v>
+        <v>280553</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1318230701293702</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1174712758579017</v>
+        <v>0.1162122202180091</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1487964803953978</v>
+        <v>0.1471052367265096</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>258811</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>232442</v>
+        <v>230070</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>283935</v>
+        <v>285787</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3178516203832636</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2854669787720804</v>
+        <v>0.2825543984557999</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3487067822725415</v>
+        <v>0.3509815446506054</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>236</v>
@@ -1622,19 +1622,19 @@
         <v>260969</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>233748</v>
+        <v>232522</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>289044</v>
+        <v>287513</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.340338507637882</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3048389596250413</v>
+        <v>0.3032403819125304</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3769525725170759</v>
+        <v>0.3749566955968562</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>483</v>
@@ -1643,19 +1643,19 @@
         <v>519780</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>483123</v>
+        <v>481782</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>557962</v>
+        <v>561310</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3287575497544944</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3055722133881789</v>
+        <v>0.3047242286944953</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3529075864332055</v>
+        <v>0.3550247787148818</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>123203</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>102715</v>
+        <v>103802</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>146090</v>
+        <v>145235</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1513087403879207</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1261462488859695</v>
+        <v>0.1274816314722791</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1794158107665364</v>
+        <v>0.1783664308139923</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>135</v>
@@ -1693,19 +1693,19 @@
         <v>145386</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>124705</v>
+        <v>123464</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>169632</v>
+        <v>170389</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1896027719993635</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1626324203370938</v>
+        <v>0.1610141662668707</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2212238592978555</v>
+        <v>0.2222109489662778</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>251</v>
@@ -1714,19 +1714,19 @@
         <v>268589</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>237584</v>
+        <v>239417</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>300692</v>
+        <v>301307</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1698809864869578</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1502702254227572</v>
+        <v>0.1514298202471921</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1901860139070891</v>
+        <v>0.1905745536394849</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>162794</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>140487</v>
+        <v>138813</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>187091</v>
+        <v>185229</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1999312061278867</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.172535322632365</v>
+        <v>0.1704796871134001</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2297706078542302</v>
+        <v>0.227484085119315</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>159</v>
@@ -1764,19 +1764,19 @@
         <v>161759</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>140744</v>
+        <v>139617</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>186120</v>
+        <v>186247</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2109557259479907</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1835496552131347</v>
+        <v>0.1820800533166157</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2427254952073041</v>
+        <v>0.242891844966518</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>317</v>
@@ -1785,19 +1785,19 @@
         <v>324554</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>295647</v>
+        <v>290925</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>356763</v>
+        <v>356624</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2052779948207101</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1869945926211873</v>
+        <v>0.1840079812850337</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2256501724706886</v>
+        <v>0.2255621312139072</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>160705</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>138889</v>
+        <v>138295</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>184514</v>
+        <v>184989</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1973657034202502</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1705730933021048</v>
+        <v>0.1698429250106297</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2266051155700944</v>
+        <v>0.2271890541315116</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>129</v>
@@ -1835,19 +1835,19 @@
         <v>132809</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>111434</v>
+        <v>114052</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>154368</v>
+        <v>157466</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1732014177804128</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1453252564650268</v>
+        <v>0.1487394228528081</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.201317277144111</v>
+        <v>0.205357605065765</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>283</v>
@@ -1856,19 +1856,19 @@
         <v>293515</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>263316</v>
+        <v>261444</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>328185</v>
+        <v>326009</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1856462515676961</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1665453732774556</v>
+        <v>0.1653616089273078</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2075748627354573</v>
+        <v>0.2061982850144053</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>108737</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>92005</v>
+        <v>90946</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>132315</v>
+        <v>131427</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1335427296806788</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1129930347155572</v>
+        <v>0.1116929781936832</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1624989609877972</v>
+        <v>0.1614087850417811</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>65</v>
@@ -1906,19 +1906,19 @@
         <v>65869</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>51154</v>
+        <v>52402</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>82171</v>
+        <v>84446</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08590157663435094</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06671185397946086</v>
+        <v>0.06833948154381471</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1071617687256284</v>
+        <v>0.1101296619512051</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>168</v>
@@ -1927,19 +1927,19 @@
         <v>174606</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>150808</v>
+        <v>148361</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>201406</v>
+        <v>200321</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1104372173701417</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09538490553827221</v>
+        <v>0.09383717898230184</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1273877533431552</v>
+        <v>0.1267019036178093</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>200804</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>178649</v>
+        <v>179235</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>225798</v>
+        <v>225440</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4004580695079992</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3562749604796472</v>
+        <v>0.3574435452142348</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4503012045258681</v>
+        <v>0.4495879019234937</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>181</v>
@@ -2052,19 +2052,19 @@
         <v>201873</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>180294</v>
+        <v>178714</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>225052</v>
+        <v>225147</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4191532783430682</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3743497918440438</v>
+        <v>0.3710685056055272</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4672811856937114</v>
+        <v>0.4674780425321267</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>366</v>
@@ -2073,19 +2073,19 @@
         <v>402677</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>368098</v>
+        <v>370435</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>432064</v>
+        <v>433276</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4096172390927455</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3744421248772471</v>
+        <v>0.3768199090081614</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4395109978616646</v>
+        <v>0.4407434285388956</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>84471</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>66435</v>
+        <v>68705</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>102377</v>
+        <v>107155</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1684574674504336</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1324884548170759</v>
+        <v>0.137015378253389</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.204166635820016</v>
+        <v>0.2136961029463416</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>78</v>
@@ -2123,19 +2123,19 @@
         <v>85552</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>69452</v>
+        <v>68270</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>104800</v>
+        <v>103937</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1776328248302826</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1442051235420415</v>
+        <v>0.1417507732445608</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2175984324954816</v>
+        <v>0.2158062763715195</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>155</v>
@@ -2144,19 +2144,19 @@
         <v>170022</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>145852</v>
+        <v>146413</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>193428</v>
+        <v>197090</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1729526648555061</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1483656650344922</v>
+        <v>0.1489368288912764</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1967618262175433</v>
+        <v>0.2004868897408195</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>69880</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>54077</v>
+        <v>56425</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>85563</v>
+        <v>86940</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1393587649609814</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1078431359522854</v>
+        <v>0.112526104382342</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1706353506848219</v>
+        <v>0.1733813113448864</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>69</v>
@@ -2194,19 +2194,19 @@
         <v>72213</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>57664</v>
+        <v>56659</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>90374</v>
+        <v>87769</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1499373252248804</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1197294932598696</v>
+        <v>0.1176424476147042</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1876456622497402</v>
+        <v>0.1822369002248634</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>134</v>
@@ -2215,19 +2215,19 @@
         <v>142092</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>120780</v>
+        <v>119298</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>163281</v>
+        <v>165098</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1445414204891592</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1228615364006683</v>
+        <v>0.1213536333700052</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.166095052507704</v>
+        <v>0.1679430464772227</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>72246</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>58491</v>
+        <v>56273</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>90871</v>
+        <v>88185</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1440778016574251</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1166471999957338</v>
+        <v>0.112222562600558</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1812212497999301</v>
+        <v>0.1758655397644385</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>64</v>
@@ -2265,19 +2265,19 @@
         <v>65349</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>50784</v>
+        <v>52046</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>80791</v>
+        <v>81228</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1356851298922229</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1054437536993796</v>
+        <v>0.1080647318881061</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1677478798175278</v>
+        <v>0.1686556835693608</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>132</v>
@@ -2286,19 +2286,19 @@
         <v>137595</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>117265</v>
+        <v>118891</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>160040</v>
+        <v>162897</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1399660581275853</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.11928589296959</v>
+        <v>0.1209399468706721</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1627985449258245</v>
+        <v>0.1657046293517866</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>74036</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>60615</v>
+        <v>58019</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>90911</v>
+        <v>89143</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1476478964231608</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1208830548289373</v>
+        <v>0.1157055049076603</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.181301827686856</v>
+        <v>0.1777743403737793</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>57</v>
@@ -2336,19 +2336,19 @@
         <v>56634</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>43738</v>
+        <v>44388</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>72132</v>
+        <v>72041</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1175914417095459</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09081376971184869</v>
+        <v>0.0921643038048344</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1497686416199347</v>
+        <v>0.1495796329215708</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>128</v>
@@ -2357,19 +2357,19 @@
         <v>130671</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>109864</v>
+        <v>110572</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>152622</v>
+        <v>153576</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1329226174350039</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1117579681565289</v>
+        <v>0.1124772331995366</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1552525044540276</v>
+        <v>0.156222469681187</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>1060921</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1011266</v>
+        <v>1003973</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1117181</v>
+        <v>1113798</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.317257507817855</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3024085820772909</v>
+        <v>0.3002277996637192</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3340813891193301</v>
+        <v>0.3330698390087988</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1171</v>
@@ -2482,19 +2482,19 @@
         <v>1295643</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1236961</v>
+        <v>1237194</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1352392</v>
+        <v>1354680</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3697063817670826</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3529618630235671</v>
+        <v>0.3530282443125534</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3858996671049533</v>
+        <v>0.3865524138903816</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2186</v>
@@ -2503,19 +2503,19 @@
         <v>2356564</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2277300</v>
+        <v>2271512</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2440754</v>
+        <v>2433214</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3440964538584947</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3325227171989618</v>
+        <v>0.3316774837038068</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3563895739377584</v>
+        <v>0.3552885873294794</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>524375</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>481446</v>
+        <v>481515</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>571756</v>
+        <v>567013</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1568088466196272</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1439715395090438</v>
+        <v>0.1439919568039935</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1709777318769262</v>
+        <v>0.1695593369217042</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>552</v>
@@ -2553,19 +2553,19 @@
         <v>585614</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>535922</v>
+        <v>540853</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>631013</v>
+        <v>633243</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1671024770502103</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1529231461150312</v>
+        <v>0.1543301107589193</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1800568741153721</v>
+        <v>0.1806933882170737</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1044</v>
@@ -2574,19 +2574,19 @@
         <v>1109988</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1043531</v>
+        <v>1053256</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1173754</v>
+        <v>1172841</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1620762655532758</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1523724508693199</v>
+        <v>0.1537924898255822</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1713871317852918</v>
+        <v>0.1712538065961403</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>612617</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>567393</v>
+        <v>567798</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>659656</v>
+        <v>659080</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1831967946596237</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1696728713014444</v>
+        <v>0.1697941138577057</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1972632226626674</v>
+        <v>0.1970910034173073</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>577</v>
@@ -2624,19 +2624,19 @@
         <v>599593</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>559293</v>
+        <v>555841</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>648524</v>
+        <v>646360</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1710914362979234</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1595919587559603</v>
+        <v>0.1586070701119823</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.185053669978876</v>
+        <v>0.1844361648435981</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1163</v>
@@ -2645,19 +2645,19 @@
         <v>1212210</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1151720</v>
+        <v>1147114</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1279043</v>
+        <v>1279345</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1770022849321738</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1681697039990634</v>
+        <v>0.167497209598944</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.186761037008896</v>
+        <v>0.186805045486317</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>622716</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>575637</v>
+        <v>578282</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>668707</v>
+        <v>670185</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1862167776032274</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1721383836931435</v>
+        <v>0.1729293099090679</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1999698728389975</v>
+        <v>0.2004117912270473</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>544</v>
@@ -2695,19 +2695,19 @@
         <v>556279</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>518721</v>
+        <v>512583</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>601668</v>
+        <v>597242</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1587319047853464</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1480150721199172</v>
+        <v>0.1462635024626445</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1716834748273078</v>
+        <v>0.1704206620356005</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1140</v>
@@ -2716,19 +2716,19 @@
         <v>1178995</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1124265</v>
+        <v>1115391</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1241448</v>
+        <v>1243692</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1721523189609496</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.164160813552017</v>
+        <v>0.1628651845140198</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1812714318807301</v>
+        <v>0.1815991552084097</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>523409</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>479484</v>
+        <v>486908</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>567364</v>
+        <v>570630</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1565200732996667</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1433847813877598</v>
+        <v>0.1456048499915737</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1696642328187036</v>
+        <v>0.1706408858765391</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>460</v>
@@ -2766,19 +2766,19 @@
         <v>467390</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>428372</v>
+        <v>426012</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>506654</v>
+        <v>508883</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1333678000994373</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.122234353044324</v>
+        <v>0.1215607063359456</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1445717498315102</v>
+        <v>0.1452075732404556</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>954</v>
@@ -2787,19 +2787,19 @@
         <v>990799</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>932444</v>
+        <v>930797</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1053487</v>
+        <v>1046551</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1446726766951061</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1361519214589006</v>
+        <v>0.135911488974953</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1538262017868776</v>
+        <v>0.1528133334018526</v>
       </c>
     </row>
     <row r="33">
